--- a/table/tools/UserDefineType.xlsx
+++ b/table/tools/UserDefineType.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyWork\ProtobufToolsForUnity\table\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Jerry\JerryGuider\table\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>类型</t>
   </si>
@@ -39,9 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ENUM_TEST_INVALID</t>
-  </si>
-  <si>
     <t>Common.EnumTest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -49,12 +46,40 @@
     <t>Common.StructTest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ommon.GuiderMsgCmd</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common_guider.proto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM_TEST_INVALID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVALID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +90,15 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -91,8 +125,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -399,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -429,21 +466,32 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/table/tools/UserDefineType.xlsx
+++ b/table/tools/UserDefineType.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>类型</t>
   </si>
@@ -72,7 +72,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INVALID</t>
+    <t>Common.GuiderTriggerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common.GuiderAnimType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG_CMD_INVALID</t>
+  </si>
+  <si>
+    <t>TRIGGER_INVALID</t>
+  </si>
+  <si>
+    <t>ANIM_TYPE_NONE</t>
   </si>
 </sst>
 </file>
@@ -436,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -491,7 +505,29 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/table/tools/UserDefineType.xlsx
+++ b/table/tools/UserDefineType.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>类型</t>
   </si>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>ANIM_TYPE_NONE</t>
+  </si>
+  <si>
+    <t>Common.Vec3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -450,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -530,6 +534,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/table/tools/UserDefineType.xlsx
+++ b/table/tools/UserDefineType.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>类型</t>
   </si>
@@ -33,18 +33,6 @@
   </si>
   <si>
     <t>说明</t>
-  </si>
-  <si>
-    <t>common_test.proto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common.EnumTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common.StructTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -65,10 +53,6 @@
   </si>
   <si>
     <t>common_guider.proto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM_TEST_INVALID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -454,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -483,22 +467,25 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -506,40 +493,18 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/table/tools/UserDefineType.xlsx
+++ b/table/tools/UserDefineType.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>类型</t>
   </si>
@@ -74,6 +74,17 @@
   </si>
   <si>
     <t>Common.Vec3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common.GuiderFollowType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOLLOW_ONCE</t>
+  </si>
+  <si>
+    <t>Common.GuiderEvent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -507,6 +518,25 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
